--- a/prep_and_checklists/Violet & Luke  /PREPLIST_Violet & Luke  _11-10-2025_0.xlsx
+++ b/prep_and_checklists/Violet & Luke  /PREPLIST_Violet & Luke  _11-10-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Violet &amp; Luke  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594262E9-7486-6746-A57A-6DE6FC1C34ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20EBBC5-946D-424B-8F00-F1AF55879D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t xml:space="preserve">Violet &amp; Luke  , Guests: 8   , 4:00 PM - 7:00 PM   ,Tuesday, November 18, 2025  </t>
   </si>
@@ -323,6 +323,69 @@
   </si>
   <si>
     <t>1/2 case</t>
+  </si>
+  <si>
+    <t>Assorted Raw Crudites</t>
+  </si>
+  <si>
+    <t>cherry tomatoes</t>
+  </si>
+  <si>
+    <t>cut breakfast radish quarters</t>
+  </si>
+  <si>
+    <t>cut carrot batons</t>
+  </si>
+  <si>
+    <t>5lb peeled tri-color carrots</t>
+  </si>
+  <si>
+    <t>cut celery batons</t>
+  </si>
+  <si>
+    <t>cut cucumber batons</t>
+  </si>
+  <si>
+    <t>cut tri-color cauliflower</t>
+  </si>
+  <si>
+    <t>cut figs</t>
+  </si>
+  <si>
+    <t>cut watermelon radish moons</t>
+  </si>
+  <si>
+    <t>Breads / Crisps</t>
+  </si>
+  <si>
+    <t>cut / fry corn tortilla chips with sumac</t>
+  </si>
+  <si>
+    <t>cut / fry lavash chips</t>
+  </si>
+  <si>
+    <t>cut / grill pita</t>
+  </si>
+  <si>
+    <t>Dips &amp; Spreads</t>
+  </si>
+  <si>
+    <t>fava bean hummus</t>
+  </si>
+  <si>
+    <t>1 x recipe,Defrost 1 pint fava spinach puree</t>
+  </si>
+  <si>
+    <t>1 packs each yellow and blue</t>
+  </si>
+  <si>
+    <t>1 packs</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>2 packs</t>
   </si>
 </sst>
 </file>
@@ -455,18 +518,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,10 +833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,24 +861,24 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -822,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -836,13 +902,13 @@
         <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -850,10 +916,10 @@
         <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -864,10 +930,10 @@
         <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -878,18 +944,10 @@
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -899,26 +957,18 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -927,33 +977,37 @@
       <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -964,155 +1018,276 @@
         <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="D21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="D22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
+        <v>80</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1327,5 +1502,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>